--- a/Parse_log/Parse_log/bin/Debug/net6.0/subdir/test/asd.xlsx
+++ b/Parse_log/Parse_log/bin/Debug/net6.0/subdir/test/asd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\genretech\loginPuhdistus\Parse_log\Parse_log\bin\Debug\net6.0\subdir\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8E6970-32C5-4864-9773-F4B4D4138E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2920A23-3532-44AC-9437-CC9240A81A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-240" windowWidth="20730" windowHeight="11160" xr2:uid="{A0FADA7B-47BA-4644-B13E-461FAEFF2C74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{36662C01-DABA-4BB4-BE26-456B05F0A871}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E783A58A-6B9B-46CE-B4F6-6F8270662E90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7ED8DE-0165-4683-9CE6-5CDDCC48E834}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -876,7 +876,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N7" xr:uid="{E783A58A-6B9B-46CE-B4F6-6F8270662E90}"/>
+  <autoFilter ref="A1:N7" xr:uid="{9B7ED8DE-0165-4683-9CE6-5CDDCC48E834}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>